--- a/ADS/Implementacion/implementacion_casosUso.xlsx
+++ b/ADS/Implementacion/implementacion_casosUso.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="li" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Implementación/CasosUso</t>
+          <t>implementacion_casosUso</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
